--- a/inst/templates/Populations.xlsx
+++ b/inst/templates/Populations.xlsx
@@ -1,157 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\inst\extdata\examples\TestProject\Parameters\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618FA645-6A51-4F05-9403-194CDA2F37E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Demographics" sheetId="1" r:id="rId1"/>
-    <sheet name="UserDefinedVariability" sheetId="2" r:id="rId2"/>
+    <sheet name="Demographics" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="UserDefinedVariability" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
-  <si>
-    <t>PopulationName</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>European_ICRP_2002</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>numberOfIndividuals</t>
-  </si>
-  <si>
-    <t>proportionOfFemales</t>
-  </si>
-  <si>
-    <t>weightMin</t>
-  </si>
-  <si>
-    <t>weightMax</t>
-  </si>
-  <si>
-    <t>heightMin</t>
-  </si>
-  <si>
-    <t>heightMax</t>
-  </si>
-  <si>
-    <t>ageMin</t>
-  </si>
-  <si>
-    <t>ageMax</t>
-  </si>
-  <si>
-    <t>BMIMin</t>
-  </si>
-  <si>
-    <t>BMIMax</t>
-  </si>
-  <si>
-    <t>weightUnit</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>heightUnit</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>BMIUnit</t>
-  </si>
-  <si>
-    <t>kg/m²</t>
-  </si>
-  <si>
-    <t>Container Path</t>
-  </si>
-  <si>
-    <t>Parameter Name</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>TestPopulation</t>
-  </si>
-  <si>
-    <t>Ontogeny</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>CYP3A4, CYP2D6</t>
-  </si>
-  <si>
-    <t>TestPopulation_noOnto</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">PopulationName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numberOfIndividuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proportionOfFemales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weightMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weightMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weightUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heightMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heightMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heightUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMIMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMIMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMIUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein Ontogenies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestPopulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European_ICRP_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg/m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYP3A4:CYP3A4, CYP2D6:CYP2D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestPopulation_noOnto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +161,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -171,188 +169,148 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -360,33 +318,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -399,13 +348,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -415,15 +358,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -431,7 +372,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -439,223 +379,227 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="B2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+      <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2">
+      <c r="H3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="M2">
+      <c r="M3" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3">
+      <c r="P3" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="M3">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDC7527-4ED0-4425-B4F9-CA5C81A120DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
